--- a/Data/Lab Notebook - Table excel files/240726_PM.xlsx
+++ b/Data/Lab Notebook - Table excel files/240726_PM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofcambridgecloud-my.sharepoint.com/personal/cm2162_cam_ac_uk/Documents/Lab Notebook/Data/Lab Notebook - Table excel files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="8_{6E3DC1C5-2C5E-044F-A77A-19DBB8978AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71956F33-AF8B-9140-B3CA-C3035B48FE6E}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="8_{6E3DC1C5-2C5E-044F-A77A-19DBB8978AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F509289-73F7-1D43-AFD8-524F94E4DD4F}"/>
   <bookViews>
     <workbookView xWindow="36960" yWindow="380" windowWidth="28040" windowHeight="16820" activeTab="2" xr2:uid="{DC480521-FD5B-724E-863C-3CFDCCF0A2E4}"/>
   </bookViews>
@@ -258,10 +258,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -773,10 +769,13 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
